--- a/wilson/Member&Task_Info.xlsx
+++ b/wilson/Member&Task_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/hknyuen_connect_ust_hk/Documents/Study/FYP/Test1_withMemberTaskExcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hkustconnect-my.sharepoint.com/personal/hknyuen_connect_ust_hk/Documents/Python/Github/production_scheduler/wilson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29B97562-B089-41DF-84D4-AF7F93DFE58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{29B97562-B089-41DF-84D4-AF7F93DFE58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E909A15-B79C-4FF0-A746-C9D9E868799F}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5270" yWindow="5130" windowWidth="14460" windowHeight="10810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Members" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="97">
   <si>
     <t>Jacob</t>
   </si>
@@ -515,10 +515,13 @@
     <t>[10, (13, 17)]</t>
   </si>
   <si>
-    <t>[20]</t>
+    <t>[20,(10,15)]</t>
   </si>
   <si>
-    <t>[8, (4, 9)]</t>
+    <t>[12, (14, 19)]</t>
+  </si>
+  <si>
+    <t>[6, (12, 18)]</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1085,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -16110,11 +16113,11 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y8" sqref="Y8"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16584,11 +16587,11 @@
         <v>87</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O8" s="29" t="str" cm="1">
         <f t="array" ref="O8">IF(N8="", "[]", "[" &amp; _xlfn.TEXTJOIN(", ", TRUE, IFERROR(VLOOKUP(TRIM(_xlfn.TEXTSPLIT(N8, ", ")), Lists!C$2:D$1000, 2, FALSE), "")) &amp; "]")</f>
-        <v>[1]</v>
+        <v>[0]</v>
       </c>
       <c r="P8" s="21"/>
       <c r="Q8" s="29" t="str">
@@ -16648,12 +16651,10 @@
         <v>84</v>
       </c>
       <c r="M9" s="22"/>
-      <c r="N9" s="20" t="s">
-        <v>0</v>
-      </c>
+      <c r="N9" s="20"/>
       <c r="O9" s="29" t="str" cm="1">
         <f t="array" ref="O9">IF(N9="", "[]", "[" &amp; _xlfn.TEXTJOIN(", ", TRUE, IFERROR(VLOOKUP(TRIM(_xlfn.TEXTSPLIT(N9, ", ")), Lists!C$2:D$1000, 2, FALSE), "")) &amp; "]")</f>
-        <v>[0]</v>
+        <v>[]</v>
       </c>
       <c r="P9" s="20">
         <v>5</v>
@@ -17443,7 +17444,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="29" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M21" s="22"/>
       <c r="N21" s="20" t="s">
@@ -17506,7 +17507,7 @@
         <v>79</v>
       </c>
       <c r="L22" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N22" s="21" t="s">
         <v>8</v>
